--- a/data/pays.xlsx
+++ b/data/pays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatchr\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F06B9-90D1-435D-8E2A-0178530C8D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F2C52-D615-4E10-B342-8875F61AB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="27070" windowHeight="18170" xr2:uid="{219420B0-9EDA-45B6-AF98-A7C49BD7BE76}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="11320" windowHeight="18170" xr2:uid="{219420B0-9EDA-45B6-AF98-A7C49BD7BE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Espagne</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D3C7D5-FEE3-4437-8D33-0C0E02775038}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,24 +550,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -574,123 +583,123 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,6 +711,17 @@
       </c>
       <c r="C16" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/pays.xlsx
+++ b/data/pays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F2C52-D615-4E10-B342-8875F61AB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC213D-2514-423B-B8CA-C13082B06E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="11320" windowHeight="18170" xr2:uid="{219420B0-9EDA-45B6-AF98-A7C49BD7BE76}"/>
+    <workbookView xWindow="4040" yWindow="750" windowWidth="16940" windowHeight="19230" xr2:uid="{219420B0-9EDA-45B6-AF98-A7C49BD7BE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,78 @@
   </si>
   <si>
     <t>Espagne</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Finlande</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>Slovaquie</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Lituanie</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Slovénie</t>
+  </si>
+  <si>
+    <t>Slovania</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Léttonie</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Estonie</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>Chypre</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Malte</t>
+  </si>
+  <si>
+    <t>Malta</t>
   </si>
 </sst>
 </file>
@@ -529,13 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D3C7D5-FEE3-4437-8D33-0C0E02775038}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -627,24 +702,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -660,67 +735,155 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
     </row>
